--- a/src/assets/forms/ARN-Register.xlsx
+++ b/src/assets/forms/ARN-Register.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahameda/Desktop/Mani/d2z/src/assets/forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahameda/Desktop/try/Mani/jpdglobalUI/src/assets/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
     <t>Business and trading website name</t>
   </si>
   <si>
-    <t>Tax identification number in your home country:</t>
+    <t>Tax identification number in your home country</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
